--- a/document/template.xlsx
+++ b/document/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="29" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="495">
   <si>
     <t>action</t>
     <phoneticPr fontId="5"/>
@@ -1975,15 +1975,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>loop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{redirect('message')}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>{redirect('reply')}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each={ opts.users } data={this}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each={ opts.replyMessages } data={this}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user-info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each={ opts.messages } data={this}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reply-info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message-info</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2663,7 +2695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2941,111 +2973,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3102,6 +3036,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3137,6 +3107,74 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3447,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3978,7 +4016,7 @@
         <v>481</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AE12" s="10"/>
     </row>
@@ -4022,7 +4060,7 @@
         <v>481</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AE13" s="10"/>
     </row>
@@ -5052,10 +5090,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5117,8 +5155,11 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="56" t="s">
-        <v>484</v>
-      </c>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="158"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6661,8 +6702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5:AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6720,8 +6761,10 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="69" t="str">
+        <f>Y15</f>
+        <v>in9</v>
+      </c>
       <c r="D2" s="69"/>
       <c r="E2" s="68"/>
       <c r="F2" s="69"/>
@@ -6910,7 +6953,7 @@
       <c r="Z6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="AA6" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB6" s="23" t="s">
@@ -6953,8 +6996,8 @@
       <c r="Z7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AA7" s="26" t="s">
-        <v>91</v>
+      <c r="AA7" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="AB7" s="23"/>
       <c r="AC7" s="10"/>
@@ -6994,7 +7037,7 @@
       <c r="Z8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA8" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB8" s="23"/>
@@ -7034,7 +7077,7 @@
       <c r="Z9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AA9" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB9" s="23"/>
@@ -7074,7 +7117,7 @@
       <c r="Z10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="26" t="s">
+      <c r="AA10" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB10" s="23"/>
@@ -7114,7 +7157,7 @@
       <c r="Z11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="26" t="s">
+      <c r="AA11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB11" s="23" t="s">
@@ -7160,7 +7203,7 @@
       <c r="Z12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AA12" s="26" t="s">
+      <c r="AA12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB12" s="23" t="s">
@@ -7202,7 +7245,7 @@
       <c r="Z13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AA13" s="26" t="s">
+      <c r="AA13" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB13" s="23" t="s">
@@ -7244,7 +7287,7 @@
       <c r="Z14" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AA14" s="26" t="s">
+      <c r="AA14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB14" s="23" t="s">
@@ -7280,10 +7323,18 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="23"/>
+      <c r="Y15" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>489</v>
+      </c>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
@@ -8208,7 +8259,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>_data!$A$2:$A$11</xm:f>
+            <xm:f>_data!$A$2:$A$153</xm:f>
           </x14:formula1>
           <xm:sqref>AA5:AA15</xm:sqref>
         </x14:dataValidation>
@@ -8223,7 +8274,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8281,8 +8332,11 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="69" t="str">
+        <f>Y15</f>
+        <v>in9</v>
+      </c>
+      <c r="C2" s="157"/>
       <c r="D2" s="69"/>
       <c r="E2" s="68"/>
       <c r="F2" s="69"/>
@@ -8471,7 +8525,7 @@
       <c r="Z6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="AA6" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB6" s="23" t="s">
@@ -8514,8 +8568,8 @@
       <c r="Z7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AA7" s="26" t="s">
-        <v>91</v>
+      <c r="AA7" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="AB7" s="23"/>
       <c r="AC7" s="10"/>
@@ -8555,7 +8609,7 @@
       <c r="Z8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA8" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB8" s="23"/>
@@ -8595,7 +8649,7 @@
       <c r="Z9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AA9" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB9" s="23"/>
@@ -8635,7 +8689,7 @@
       <c r="Z10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="26" t="s">
+      <c r="AA10" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB10" s="23"/>
@@ -8675,7 +8729,7 @@
       <c r="Z11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="26" t="s">
+      <c r="AA11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB11" s="23" t="s">
@@ -8721,7 +8775,7 @@
       <c r="Z12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AA12" s="26" t="s">
+      <c r="AA12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB12" s="23" t="s">
@@ -8763,7 +8817,7 @@
       <c r="Z13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AA13" s="26" t="s">
+      <c r="AA13" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB13" s="23" t="s">
@@ -8805,7 +8859,7 @@
       <c r="Z14" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AA14" s="26" t="s">
+      <c r="AA14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB14" s="23" t="s">
@@ -8841,10 +8895,18 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="23"/>
+      <c r="Y15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>490</v>
+      </c>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
@@ -9769,7 +9831,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>_data!$A$2:$A$11</xm:f>
+            <xm:f>_data!$A$2:$A$153</xm:f>
           </x14:formula1>
           <xm:sqref>AA5:AA15</xm:sqref>
         </x14:dataValidation>
@@ -9783,8 +9845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9842,7 +9904,10 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
+      <c r="B2" s="69" t="str">
+        <f>Y15</f>
+        <v>in9</v>
+      </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
       <c r="E2" s="68"/>
@@ -10032,7 +10097,7 @@
       <c r="Z6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="AA6" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB6" s="23" t="s">
@@ -10075,8 +10140,8 @@
       <c r="Z7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AA7" s="26" t="s">
-        <v>91</v>
+      <c r="AA7" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="AB7" s="23"/>
       <c r="AC7" s="10"/>
@@ -10116,7 +10181,7 @@
       <c r="Z8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA8" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB8" s="23"/>
@@ -10156,7 +10221,7 @@
       <c r="Z9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AA9" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB9" s="23"/>
@@ -10196,7 +10261,7 @@
       <c r="Z10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="26" t="s">
+      <c r="AA10" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AB10" s="23"/>
@@ -10236,7 +10301,7 @@
       <c r="Z11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="26" t="s">
+      <c r="AA11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB11" s="23" t="s">
@@ -10282,7 +10347,7 @@
       <c r="Z12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AA12" s="26" t="s">
+      <c r="AA12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB12" s="23" t="s">
@@ -10324,7 +10389,7 @@
       <c r="Z13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AA13" s="26" t="s">
+      <c r="AA13" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB13" s="23" t="s">
@@ -10366,7 +10431,7 @@
       <c r="Z14" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AA14" s="26" t="s">
+      <c r="AA14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AB14" s="23" t="s">
@@ -10402,10 +10467,18 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="23"/>
+      <c r="Y15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>492</v>
+      </c>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
@@ -11330,7 +11403,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>_data!$A$2:$A$11</xm:f>
+            <xm:f>_data!$A$2:$A$153</xm:f>
           </x14:formula1>
           <xm:sqref>AA5:AA15</xm:sqref>
         </x14:dataValidation>
@@ -12984,28 +13057,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
       <c r="W1" s="45"/>
@@ -13021,41 +13094,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="142" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="125" t="str">
+      <c r="B2" s="143"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="150" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="115" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="129" t="str">
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="101" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="142" t="s">
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="145" t="str">
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="127" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="147"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
@@ -13070,36 +13143,36 @@
       <c r="AC2" s="24"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="112" t="str">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="146" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="118" t="s">
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="130" t="str">
+      <c r="I3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="103" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="131"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="150"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="132"/>
       <c r="U3" s="46"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -13114,36 +13187,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="112" t="str">
+      <c r="B4" s="140"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="146" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="118" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="119"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="151" t="str">
+      <c r="O4" s="122"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="133" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="153"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="135"/>
       <c r="U4" s="46"/>
       <c r="V4" s="46"/>
       <c r="W4" s="46"/>
@@ -13170,36 +13243,36 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="112" t="str">
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="146" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="105" t="s">
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="136" t="str">
+      <c r="I5" s="140"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="109" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="137"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="150"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="132"/>
       <c r="U5" s="46"/>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
@@ -13222,41 +13295,41 @@
       <c r="AE5" s="10"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="109" t="str">
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="154" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="102" t="s">
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="139" t="str">
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="112" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="140"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="102" t="s">
+      <c r="L6" s="113"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="103"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="154" t="str">
+      <c r="O6" s="125"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="136" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="156"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="138"/>
       <c r="U6" s="47"/>
       <c r="V6" s="47"/>
       <c r="W6" s="47"/>
@@ -13277,9 +13350,9 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="124"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
+      <c r="A7" s="149"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -13397,19 +13470,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="145" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="54"/>
@@ -13451,11 +13524,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
       <c r="L11" s="6"/>
@@ -13495,11 +13568,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
       <c r="L12" s="6"/>
@@ -13539,11 +13612,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
       <c r="J13" s="54"/>
       <c r="K13" s="54"/>
       <c r="L13" s="6"/>
@@ -13657,21 +13730,21 @@
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="100" t="str">
+      <c r="C16" s="152" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -13704,21 +13777,21 @@
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="100" t="str">
+      <c r="C17" s="152" t="str">
         <f>Y10</f>
         <v>in4</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -14788,6 +14861,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D2:G2"/>
     <mergeCell ref="A35:T35"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="K2:M2"/>
@@ -14804,24 +14895,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J4"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>

--- a/document/template.xlsx
+++ b/document/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="29" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="499">
   <si>
     <t>action</t>
     <phoneticPr fontId="5"/>
@@ -1960,10 +1960,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W10 H2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ようこそ、{ opts.name }様</t>
     <rPh sb="18" eb="19">
       <t>サマ</t>
@@ -2016,6 +2012,29 @@
   </si>
   <si>
     <t>message-info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{redirect('admin')}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W10 H2 weui-dialog__btn weui-dialog__btn_primary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W10 H2 weui-dialog__btn weui-dialog__btn_primary</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2695,7 +2714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2916,6 +2935,15 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2973,13 +3001,74 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3036,30 +3125,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3108,58 +3173,15 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3170,11 +3192,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3485,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3511,7 +3536,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="92"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3546,7 +3571,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="92"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="1"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
@@ -3582,7 +3607,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="92"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3618,7 +3643,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="92"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3665,7 +3690,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="92"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="33"/>
@@ -3710,24 +3735,24 @@
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="92"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="96" t="s">
         <v>477</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
@@ -3742,7 +3767,7 @@
         <v>90</v>
       </c>
       <c r="AB6" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
@@ -3757,19 +3782,19 @@
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="92"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="95" t="str">
+      <c r="F7" s="98" t="str">
         <f>Y6</f>
         <v>headline</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
@@ -3803,7 +3828,7 @@
       <c r="A8" s="50"/>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="92"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="38"/>
       <c r="F8" s="39"/>
       <c r="G8" s="38"/>
@@ -3842,26 +3867,26 @@
       <c r="AI8" s="21"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -3887,25 +3912,25 @@
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="92"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="83" t="str">
+      <c r="G10" s="86" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="85"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="88"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -3932,22 +3957,22 @@
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="92"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="91"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -3965,7 +3990,7 @@
         <v>478</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="AD11" s="10" t="s">
         <v>476</v>
@@ -3980,22 +4005,22 @@
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="92"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="91"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="94"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -4013,10 +4038,10 @@
         <v>480</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AE12" s="10"/>
     </row>
@@ -4024,7 +4049,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="92"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -4057,10 +4082,10 @@
         <v>479</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AE13" s="10"/>
     </row>
@@ -4068,25 +4093,25 @@
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="92"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="83" t="str">
+      <c r="G14" s="86" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="85"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="88"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -4103,22 +4128,22 @@
       <c r="A15" s="1"/>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="92"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="91"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -4135,22 +4160,22 @@
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="92"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="91"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -4160,7 +4185,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="92"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -4185,25 +4210,25 @@
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="92"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="83" t="str">
+      <c r="G18" s="86" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="85"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="88"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -4213,22 +4238,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="92"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="91"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -4238,22 +4263,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="92"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="91"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="94"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -4263,7 +4288,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="92"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="61"/>
@@ -4288,7 +4313,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="92"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="61"/>
@@ -4313,7 +4338,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="92"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -4338,7 +4363,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="92"/>
+      <c r="D24" s="95"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -4363,7 +4388,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="92"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="61"/>
@@ -4388,7 +4413,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="92"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="61"/>
@@ -4413,7 +4438,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="92"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="61"/>
@@ -4438,7 +4463,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="92"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="61"/>
@@ -4463,7 +4488,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="92"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="61"/>
@@ -4488,7 +4513,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="92"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4513,7 +4538,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="92"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -4537,24 +4562,24 @@
       <c r="A32" s="2"/>
       <c r="B32" s="17"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="92"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="99" t="s">
+      <c r="F32" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -4563,7 +4588,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="17"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="92"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -4587,7 +4612,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="17"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="92"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4609,28 +4634,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -5155,11 +5180,11 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="158"/>
+      <c r="A13" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6702,8 +6727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5:AA15"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6912,7 +6937,7 @@
         <v>90</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC5" s="10" t="s">
         <v>22</v>
@@ -7151,7 +7176,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="Y11" s="23" t="s">
+      <c r="Y11" s="83" t="s">
         <v>29</v>
       </c>
       <c r="Z11" s="23" t="s">
@@ -7161,13 +7186,13 @@
         <v>32</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>54</v>
+        <v>497</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>101</v>
+        <v>494</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="21"/>
@@ -7324,16 +7349,16 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="Y15" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA15" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="Z15" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA15" s="22" t="s">
-        <v>487</v>
-      </c>
       <c r="AB15" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -7686,19 +7711,22 @@
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="68"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
+      <c r="C30" s="103" t="str">
+        <f>Y11</f>
+        <v>in5</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="88"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="68"/>
       <c r="R30" s="68"/>
@@ -7711,19 +7739,19 @@
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="68"/>
       <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="91"/>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="70"/>
@@ -7735,19 +7763,19 @@
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="68"/>
       <c r="B32" s="63"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="94"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="79"/>
@@ -7806,28 +7834,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -8242,10 +8270,10 @@
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D6" name="タイトル1"/>
-    <protectedRange sqref="F32" name="会社名"/>
   </protectedRanges>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A35:T35"/>
+    <mergeCell ref="C30:O32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8273,8 +8301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8336,7 +8364,7 @@
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="C2" s="157"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="69"/>
       <c r="E2" s="68"/>
       <c r="F2" s="69"/>
@@ -8484,7 +8512,7 @@
         <v>90</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC5" s="10" t="s">
         <v>22</v>
@@ -8733,13 +8761,13 @@
         <v>32</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>54</v>
+        <v>497</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>101</v>
+        <v>494</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="21"/>
@@ -8899,13 +8927,13 @@
         <v>52</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AA15" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -9258,19 +9286,22 @@
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="68"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
+      <c r="C30" s="103" t="str">
+        <f>Y11</f>
+        <v>in5</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="88"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="68"/>
       <c r="R30" s="68"/>
@@ -9283,19 +9314,19 @@
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="68"/>
       <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="91"/>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="70"/>
@@ -9307,19 +9338,19 @@
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="68"/>
       <c r="B32" s="63"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="94"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="79"/>
@@ -9378,28 +9409,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -9814,10 +9845,10 @@
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D6" name="タイトル1"/>
-    <protectedRange sqref="F32" name="会社名"/>
   </protectedRanges>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A35:T35"/>
+    <mergeCell ref="C30:O32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9845,8 +9876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10056,7 +10087,7 @@
         <v>90</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC5" s="10" t="s">
         <v>22</v>
@@ -10305,13 +10336,13 @@
         <v>32</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>54</v>
+        <v>497</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>101</v>
+        <v>494</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="21"/>
@@ -10471,13 +10502,13 @@
         <v>52</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA15" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -10830,19 +10861,22 @@
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="68"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
+      <c r="C30" s="103" t="str">
+        <f>Y11</f>
+        <v>in5</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="88"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="68"/>
       <c r="R30" s="68"/>
@@ -10855,19 +10889,19 @@
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="68"/>
       <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="91"/>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="70"/>
@@ -10879,19 +10913,19 @@
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="68"/>
       <c r="B32" s="63"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="94"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="79"/>
@@ -10950,28 +10984,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -11386,10 +11420,10 @@
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D6" name="タイトル1"/>
-    <protectedRange sqref="F32" name="会社名"/>
   </protectedRanges>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A35:T35"/>
+    <mergeCell ref="C30:O32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -11443,7 +11477,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="92"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -11478,7 +11512,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="92"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="1"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
@@ -11514,7 +11548,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="92"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -11550,7 +11584,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="92"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -11597,7 +11631,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="92"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="33"/>
@@ -11644,25 +11678,25 @@
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="92"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="93" t="str">
+      <c r="F6" s="96" t="str">
         <f>Y5</f>
         <v>title</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
@@ -11692,19 +11726,19 @@
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="92"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="95" t="str">
+      <c r="F7" s="98" t="str">
         <f>Y6</f>
         <v>headline</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
@@ -11738,7 +11772,7 @@
       <c r="A8" s="50"/>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="92"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="38"/>
       <c r="F8" s="39"/>
       <c r="G8" s="38"/>
@@ -11777,26 +11811,26 @@
       <c r="AI8" s="21"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -11822,25 +11856,25 @@
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="92"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="83" t="str">
+      <c r="G10" s="86" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="85"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="88"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -11867,22 +11901,22 @@
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="92"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="91"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -11915,22 +11949,22 @@
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="92"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="91"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="94"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -11959,7 +11993,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="92"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -12003,25 +12037,25 @@
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="92"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="83" t="str">
+      <c r="G14" s="86" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="85"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="88"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -12050,22 +12084,22 @@
       <c r="A15" s="1"/>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="92"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="91"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -12082,22 +12116,22 @@
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="92"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="91"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -12107,7 +12141,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="92"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -12132,25 +12166,25 @@
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="92"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="83" t="str">
+      <c r="G18" s="86" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="85"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="88"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -12160,22 +12194,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="92"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="91"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -12185,22 +12219,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="92"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="91"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="94"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -12210,7 +12244,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="92"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="44"/>
@@ -12235,25 +12269,25 @@
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="92"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="83" t="str">
+      <c r="G22" s="86" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="85"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="88"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -12263,22 +12297,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="92"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="91"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -12288,22 +12322,22 @@
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="92"/>
+      <c r="D24" s="95"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="91"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="94"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -12313,7 +12347,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="92"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="44"/>
@@ -12338,7 +12372,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="92"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="44"/>
@@ -12363,7 +12397,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="92"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="44"/>
@@ -12388,7 +12422,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="92"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="44"/>
@@ -12413,7 +12447,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="92"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="44"/>
@@ -12438,7 +12472,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="92"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -12463,7 +12497,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="92"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -12487,24 +12521,24 @@
       <c r="A32" s="2"/>
       <c r="B32" s="17"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="92"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="99" t="s">
+      <c r="F32" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -12513,7 +12547,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="17"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="92"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -12537,7 +12571,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="17"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="92"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -12559,28 +12593,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -13057,28 +13091,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
       <c r="W1" s="45"/>
@@ -13094,41 +13128,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="150" t="str">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="117" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="142" t="s">
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="101" t="str">
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="121" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="115" t="s">
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="127" t="str">
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="140" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="129"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="142"/>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
@@ -13143,36 +13177,36 @@
       <c r="AC2" s="24"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="146" t="str">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="158" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="121" t="s">
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="122"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="103" t="str">
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="122" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="132"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="145"/>
       <c r="U3" s="46"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -13187,36 +13221,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="146" t="str">
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="158" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="121" t="s">
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="133" t="str">
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="146" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="135"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="147"/>
+      <c r="T4" s="148"/>
       <c r="U4" s="46"/>
       <c r="V4" s="46"/>
       <c r="W4" s="46"/>
@@ -13243,36 +13277,36 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="146" t="str">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="158" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="139" t="s">
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="109" t="str">
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="128" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="132"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="145"/>
       <c r="U5" s="46"/>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
@@ -13295,41 +13329,41 @@
       <c r="AE5" s="10"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="154" t="str">
+      <c r="B6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="155" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="124" t="s">
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="112" t="str">
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="131" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="113"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="124" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="125"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="136" t="str">
+      <c r="O6" s="138"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="149" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="137"/>
-      <c r="S6" s="137"/>
-      <c r="T6" s="138"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="151"/>
       <c r="U6" s="47"/>
       <c r="V6" s="47"/>
       <c r="W6" s="47"/>
@@ -13350,9 +13384,9 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -13470,19 +13504,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
-      <c r="E10" s="145" t="s">
+      <c r="E10" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="145" t="s">
+      <c r="F10" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="145" t="s">
+      <c r="G10" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="145" t="s">
+      <c r="H10" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="145" t="s">
+      <c r="I10" s="154" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="54"/>
@@ -13524,11 +13558,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
       <c r="L11" s="6"/>
@@ -13568,11 +13602,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
       <c r="L12" s="6"/>
@@ -13612,11 +13646,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
       <c r="J13" s="54"/>
       <c r="K13" s="54"/>
       <c r="L13" s="6"/>
@@ -14426,28 +14460,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -14861,24 +14895,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D2:G2"/>
     <mergeCell ref="A35:T35"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="K2:M2"/>
@@ -14892,9 +14916,19 @@
     <mergeCell ref="Q4:T5"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C16:N16"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J4"/>
     <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -15133,7 +15167,7 @@
         <v>90</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC5" s="10" t="s">
         <v>22</v>
@@ -16019,28 +16053,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -16694,7 +16728,7 @@
         <v>90</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC5" s="10" t="s">
         <v>22</v>
@@ -17580,28 +17614,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -18255,7 +18289,7 @@
         <v>90</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC5" s="10" t="s">
         <v>22</v>
@@ -19141,28 +19175,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>

--- a/document/template.xlsx
+++ b/document/template.xlsx
@@ -85,7 +85,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,20 +106,40 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>CP</t>
+          <t>VLINE</t>
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W16</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -185,51 +215,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>VLINE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W16</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -274,83 +259,8 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>CP</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>CP</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>CP</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="500">
   <si>
     <t>action</t>
     <phoneticPr fontId="5"/>
@@ -2030,11 +1940,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W10 H2 weui-dialog__btn weui-dialog__btn_primary</t>
+    <t>W10 H2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W10 H2 weui-dialog__btn weui-dialog__btn_primary</t>
+    <t>position: absolute;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position: fixed;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2714,7 +2628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2944,11 +2858,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2977,9 +2894,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3001,7 +2915,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3063,6 +2983,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3192,14 +3121,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3510,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3536,7 +3459,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="95"/>
+      <c r="D1" s="103"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3571,7 +3494,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="95"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="1"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
@@ -3607,7 +3530,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="95"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3643,7 +3566,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="95"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3690,7 +3613,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="95"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="33"/>
@@ -3735,7 +3658,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="95"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="6"/>
       <c r="F6" s="96" t="s">
         <v>477</v>
@@ -3782,7 +3705,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="95"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="6"/>
       <c r="F7" s="98" t="str">
         <f>Y6</f>
@@ -3828,7 +3751,7 @@
       <c r="A8" s="50"/>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="95"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="38"/>
       <c r="F8" s="39"/>
       <c r="G8" s="38"/>
@@ -3870,7 +3793,7 @@
       <c r="A9" s="100"/>
       <c r="B9" s="100"/>
       <c r="C9" s="100"/>
-      <c r="D9" s="95"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="101"/>
       <c r="F9" s="101"/>
       <c r="G9" s="101"/>
@@ -3912,25 +3835,25 @@
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="95"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="86" t="str">
+      <c r="G10" s="87" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="89"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -3957,22 +3880,22 @@
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="95"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="91"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="92"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -4005,22 +3928,22 @@
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="95"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="94"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="95"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -4038,7 +3961,7 @@
         <v>480</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AD12" s="10" t="s">
         <v>483</v>
@@ -4049,7 +3972,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="95"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -4082,7 +4005,7 @@
         <v>479</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AD13" s="10" t="s">
         <v>484</v>
@@ -4093,25 +4016,25 @@
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="95"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="86" t="str">
+      <c r="G14" s="87" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="89"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -4128,22 +4051,22 @@
       <c r="A15" s="1"/>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="95"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="91"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="92"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -4160,22 +4083,22 @@
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="95"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="94"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="95"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -4185,7 +4108,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="95"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -4210,25 +4133,25 @@
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="95"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="86" t="str">
+      <c r="G18" s="87" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="89"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -4238,22 +4161,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="95"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="91"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="92"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -4263,22 +4186,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="95"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="94"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="95"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -4288,7 +4211,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="95"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="61"/>
@@ -4313,7 +4236,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="95"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="61"/>
@@ -4338,7 +4261,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="95"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -4363,7 +4286,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="95"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -4388,7 +4311,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="95"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="61"/>
@@ -4413,7 +4336,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="95"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="61"/>
@@ -4438,7 +4361,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="95"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="61"/>
@@ -4463,7 +4386,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="95"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="61"/>
@@ -4488,7 +4411,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="95"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="61"/>
@@ -4513,7 +4436,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="95"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4538,7 +4461,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="95"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -4562,7 +4485,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="17"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="95"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="18"/>
       <c r="F32" s="102" t="s">
         <v>59</v>
@@ -4588,7 +4511,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="17"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="95"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -4612,7 +4535,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="17"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="95"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4634,12 +4557,10 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
-        <v>62</v>
-      </c>
+      <c r="A35" s="84"/>
       <c r="B35" s="85"/>
       <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="85"/>
       <c r="F35" s="85"/>
       <c r="G35" s="85"/>
@@ -5072,17 +4993,16 @@
     <protectedRange sqref="F6" name="タイトル1"/>
     <protectedRange sqref="F32" name="会社名"/>
   </protectedRanges>
-  <mergeCells count="10">
-    <mergeCell ref="A35:T35"/>
+  <mergeCells count="9">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:T9"/>
+    <mergeCell ref="F32:S32"/>
+    <mergeCell ref="D1:D34"/>
     <mergeCell ref="G14:S16"/>
     <mergeCell ref="G10:S12"/>
     <mergeCell ref="G18:S20"/>
-    <mergeCell ref="D1:D34"/>
     <mergeCell ref="F6:S6"/>
     <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:T9"/>
-    <mergeCell ref="F32:S32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5196,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5271,7 +5191,7 @@
         <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>498</v>
       </c>
       <c r="C7" t="s">
         <v>232</v>
@@ -6665,7 +6585,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>443</v>
       </c>
@@ -6673,12 +6593,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>413</v>
       </c>
@@ -6691,8 +6611,11 @@
       <c r="D179" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E179" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>469</v>
       </c>
@@ -6700,7 +6623,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>470</v>
       </c>
@@ -6708,7 +6631,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>472</v>
       </c>
@@ -6724,11 +6647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7711,22 +7634,19 @@
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="68"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="103" t="str">
-        <f>Y11</f>
-        <v>in5</v>
-      </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="88"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="68"/>
       <c r="R30" s="68"/>
@@ -7739,19 +7659,19 @@
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="68"/>
       <c r="B31" s="70"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="91"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="70"/>
@@ -7763,19 +7683,19 @@
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="68"/>
       <c r="B32" s="63"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="94"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="79"/>
@@ -7809,53 +7729,51 @@
       <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="80"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="86"/>
       <c r="U34" s="4"/>
       <c r="V34" s="6"/>
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="86"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -8271,17 +8189,12 @@
   <protectedRanges>
     <protectedRange sqref="D6" name="タイトル1"/>
   </protectedRanges>
-  <mergeCells count="2">
-    <mergeCell ref="A35:T35"/>
-    <mergeCell ref="C30:O32"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="Z2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -8298,11 +8211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9286,22 +9199,19 @@
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="68"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="103" t="str">
-        <f>Y11</f>
-        <v>in5</v>
-      </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="88"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="68"/>
       <c r="R30" s="68"/>
@@ -9314,19 +9224,19 @@
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="68"/>
       <c r="B31" s="70"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="91"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="70"/>
@@ -9338,19 +9248,19 @@
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="68"/>
       <c r="B32" s="63"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="94"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="79"/>
@@ -9384,53 +9294,51 @@
       <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="80"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="86"/>
       <c r="U34" s="4"/>
       <c r="V34" s="6"/>
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="86"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -9846,17 +9754,12 @@
   <protectedRanges>
     <protectedRange sqref="D6" name="タイトル1"/>
   </protectedRanges>
-  <mergeCells count="2">
-    <mergeCell ref="A35:T35"/>
-    <mergeCell ref="C30:O32"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="Z2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -9873,11 +9776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+      <selection activeCell="C30" sqref="C30:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10861,22 +10764,19 @@
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="68"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="103" t="str">
-        <f>Y11</f>
-        <v>in5</v>
-      </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="88"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="68"/>
       <c r="R30" s="68"/>
@@ -10889,19 +10789,19 @@
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="68"/>
       <c r="B31" s="70"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="91"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="70"/>
@@ -10913,19 +10813,19 @@
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="68"/>
       <c r="B32" s="63"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="94"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="79"/>
@@ -10959,53 +10859,51 @@
       <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="80"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="86"/>
       <c r="U34" s="4"/>
       <c r="V34" s="6"/>
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="86"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -11421,17 +11319,12 @@
   <protectedRanges>
     <protectedRange sqref="D6" name="タイトル1"/>
   </protectedRanges>
-  <mergeCells count="2">
-    <mergeCell ref="A35:T35"/>
-    <mergeCell ref="C30:O32"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="Z2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -11451,8 +11344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:J27"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11477,7 +11370,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="95"/>
+      <c r="D1" s="103"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -11512,7 +11405,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="95"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="1"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
@@ -11548,7 +11441,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="95"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -11584,7 +11477,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="95"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -11631,7 +11524,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="95"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="33"/>
@@ -11678,7 +11571,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="95"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="6"/>
       <c r="F6" s="96" t="str">
         <f>Y5</f>
@@ -11726,7 +11619,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="95"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="6"/>
       <c r="F7" s="98" t="str">
         <f>Y6</f>
@@ -11772,7 +11665,7 @@
       <c r="A8" s="50"/>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="95"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="38"/>
       <c r="F8" s="39"/>
       <c r="G8" s="38"/>
@@ -11814,7 +11707,7 @@
       <c r="A9" s="100"/>
       <c r="B9" s="100"/>
       <c r="C9" s="100"/>
-      <c r="D9" s="95"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="101"/>
       <c r="F9" s="101"/>
       <c r="G9" s="101"/>
@@ -11856,25 +11749,25 @@
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="95"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="86" t="str">
+      <c r="G10" s="87" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="89"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -11901,22 +11794,22 @@
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="95"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="91"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="92"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -11949,22 +11842,22 @@
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="95"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="94"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="95"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -11993,7 +11886,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="95"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -12037,25 +11930,25 @@
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="95"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="86" t="str">
+      <c r="G14" s="87" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="89"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -12084,22 +11977,22 @@
       <c r="A15" s="1"/>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="95"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="91"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="92"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -12116,22 +12009,22 @@
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="95"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="94"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="95"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -12141,7 +12034,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="95"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -12166,25 +12059,25 @@
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="95"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="86" t="str">
+      <c r="G18" s="87" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="89"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -12194,22 +12087,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="95"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="91"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="92"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -12219,22 +12112,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="95"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="94"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="95"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -12244,7 +12137,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="95"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="44"/>
@@ -12269,25 +12162,25 @@
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="95"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="86" t="str">
+      <c r="G22" s="87" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="89"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -12297,22 +12190,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="95"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="91"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="92"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -12322,22 +12215,22 @@
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="95"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="94"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="95"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -12347,7 +12240,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="95"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="44"/>
@@ -12372,7 +12265,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="95"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="44"/>
@@ -12397,7 +12290,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="95"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="44"/>
@@ -12422,7 +12315,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="95"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="44"/>
@@ -12447,7 +12340,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="95"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="44"/>
@@ -12472,7 +12365,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="95"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -12497,7 +12390,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="95"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -12521,7 +12414,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="17"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="95"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="18"/>
       <c r="F32" s="102" t="s">
         <v>59</v>
@@ -12547,7 +12440,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="17"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="95"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -12571,7 +12464,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="17"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="95"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -12593,28 +12486,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -13091,28 +12984,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
       <c r="W1" s="45"/>
@@ -13128,41 +13021,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="106" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="117" t="str">
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="119" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="104" t="s">
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="121" t="str">
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="126" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="134" t="s">
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="140" t="str">
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="145" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="142"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="147"/>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
@@ -13177,36 +13070,36 @@
       <c r="AC2" s="24"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="158" t="str">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="122" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="107" t="s">
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="122" t="str">
+      <c r="I3" s="110"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="127" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="145"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="150"/>
       <c r="U3" s="46"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -13221,36 +13114,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="158" t="str">
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="122" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="107" t="s">
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="146" t="str">
+      <c r="O4" s="110"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="151" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="148"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="153"/>
       <c r="U4" s="46"/>
       <c r="V4" s="46"/>
       <c r="W4" s="46"/>
@@ -13277,36 +13170,36 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="158" t="str">
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="122" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="113" t="s">
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="128" t="str">
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="133" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="129"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="145"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="149"/>
+      <c r="T5" s="150"/>
       <c r="U5" s="46"/>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
@@ -13329,41 +13222,41 @@
       <c r="AE5" s="10"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="155" t="str">
+      <c r="B6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="160" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="137" t="s">
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="131" t="str">
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="136" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="137" t="s">
+      <c r="L6" s="137"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="149" t="str">
+      <c r="O6" s="143"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="154" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="151"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="156"/>
       <c r="U6" s="47"/>
       <c r="V6" s="47"/>
       <c r="W6" s="47"/>
@@ -13384,9 +13277,9 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="116"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -13504,19 +13397,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
-      <c r="E10" s="154" t="s">
+      <c r="E10" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="154" t="s">
+      <c r="H10" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="154" t="s">
+      <c r="I10" s="159" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="54"/>
@@ -13558,11 +13451,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
       <c r="L11" s="6"/>
@@ -13602,11 +13495,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
       <c r="L12" s="6"/>
@@ -13646,11 +13539,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
       <c r="J13" s="54"/>
       <c r="K13" s="54"/>
       <c r="L13" s="6"/>
@@ -13764,21 +13657,21 @@
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="152" t="str">
+      <c r="C16" s="157" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -13811,21 +13704,21 @@
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="152" t="str">
+      <c r="C17" s="157" t="str">
         <f>Y10</f>
         <v>in4</v>
       </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -14460,28 +14353,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -16053,28 +15946,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -17614,28 +17507,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -19175,28 +19068,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>

--- a/document/template.xlsx
+++ b/document/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="29" r:id="rId1"/>
@@ -95,6 +95,31 @@
     <author>作成者</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -140,31 +165,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>CP</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
     <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -259,8 +259,33 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="A35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>CP</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="506">
   <si>
     <t>action</t>
     <phoneticPr fontId="5"/>
@@ -1949,6 +1974,30 @@
   </si>
   <si>
     <t>position: fixed;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pagination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">total={opts.userCount} size=5 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total={ opts.messageCount } size=10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">total={opts.replyCount} size=5 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2867,6 +2916,21 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2905,18 +2969,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3120,9 +3172,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3433,7 +3482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D34"/>
     </sheetView>
   </sheetViews>
@@ -3459,7 +3508,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="103"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3494,7 +3543,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="103"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="1"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
@@ -3530,7 +3579,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="103"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3566,7 +3615,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="103"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3613,7 +3662,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="103"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="33"/>
@@ -3658,24 +3707,24 @@
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="103"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="101" t="s">
         <v>477</v>
       </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
@@ -3705,19 +3754,19 @@
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="103"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="98" t="str">
+      <c r="F7" s="103" t="str">
         <f>Y6</f>
         <v>headline</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
@@ -3751,7 +3800,7 @@
       <c r="A8" s="50"/>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="103"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="38"/>
       <c r="F8" s="39"/>
       <c r="G8" s="38"/>
@@ -3790,26 +3839,26 @@
       <c r="AI8" s="21"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -3835,25 +3884,25 @@
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="103"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="87" t="str">
+      <c r="G10" s="92" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="89"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="94"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -3880,22 +3929,22 @@
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="103"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="92"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="97"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -3928,22 +3977,22 @@
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="103"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="95"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="100"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -3972,7 +4021,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="103"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -4016,25 +4065,25 @@
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="103"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="87" t="str">
+      <c r="G14" s="92" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="89"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="94"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -4051,22 +4100,22 @@
       <c r="A15" s="1"/>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="103"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="92"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="97"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -4083,22 +4132,22 @@
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="103"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="95"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -4108,7 +4157,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="103"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -4133,25 +4182,25 @@
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="103"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="87" t="str">
+      <c r="G18" s="92" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="89"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="94"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -4161,22 +4210,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="103"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="92"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="97"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -4186,22 +4235,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="103"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="95"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="100"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -4211,7 +4260,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="103"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="61"/>
@@ -4236,7 +4285,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="103"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="61"/>
@@ -4261,7 +4310,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="103"/>
+      <c r="D23" s="91"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -4286,7 +4335,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="103"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -4311,7 +4360,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="103"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="61"/>
@@ -4336,7 +4385,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="103"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="61"/>
@@ -4361,7 +4410,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="103"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="61"/>
@@ -4386,7 +4435,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="103"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="61"/>
@@ -4411,7 +4460,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="103"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="61"/>
@@ -4436,7 +4485,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="103"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4461,7 +4510,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="103"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -4485,24 +4534,24 @@
       <c r="A32" s="2"/>
       <c r="B32" s="17"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="103"/>
+      <c r="D32" s="91"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="102" t="s">
+      <c r="F32" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -4511,7 +4560,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="17"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="103"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -4535,7 +4584,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="17"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="103"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4560,7 +4609,7 @@
       <c r="A35" s="84"/>
       <c r="B35" s="85"/>
       <c r="C35" s="85"/>
-      <c r="D35" s="163"/>
+      <c r="D35" s="87"/>
       <c r="E35" s="85"/>
       <c r="F35" s="85"/>
       <c r="G35" s="85"/>
@@ -6647,11 +6696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6673,7 +6722,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68"/>
+      <c r="A1" s="68" t="str">
+        <f>Y16</f>
+        <v>in10</v>
+      </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
       <c r="D1" s="69"/>
@@ -6709,10 +6761,6 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
-      <c r="B2" s="69" t="str">
-        <f>Y15</f>
-        <v>in9</v>
-      </c>
       <c r="D2" s="69"/>
       <c r="E2" s="68"/>
       <c r="F2" s="69"/>
@@ -6783,7 +6831,10 @@
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="68"/>
-      <c r="B4" s="63"/>
+      <c r="B4" s="69" t="str">
+        <f>Y15</f>
+        <v>in9</v>
+      </c>
       <c r="C4" s="63"/>
       <c r="D4" s="69"/>
       <c r="E4" s="63"/>
@@ -7283,7 +7334,9 @@
       <c r="AB15" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="AC15" s="10"/>
+      <c r="AC15" s="10" t="s">
+        <v>503</v>
+      </c>
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
     </row>
@@ -7309,6 +7362,23 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
+      <c r="Y16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="68"/>
@@ -8195,6 +8265,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -8202,7 +8273,7 @@
           <x14:formula1>
             <xm:f>_data!$A$2:$A$153</xm:f>
           </x14:formula1>
-          <xm:sqref>AA5:AA15</xm:sqref>
+          <xm:sqref>AA5:AA16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8214,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8237,7 +8308,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68"/>
+      <c r="A1" s="68" t="str">
+        <f>Y16</f>
+        <v>in10</v>
+      </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
       <c r="D1" s="69"/>
@@ -8273,10 +8347,6 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
-      <c r="B2" s="69" t="str">
-        <f>Y15</f>
-        <v>in9</v>
-      </c>
       <c r="C2" s="81"/>
       <c r="D2" s="69"/>
       <c r="E2" s="68"/>
@@ -8348,7 +8418,10 @@
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="68"/>
-      <c r="B4" s="63"/>
+      <c r="B4" s="69" t="str">
+        <f>Y15</f>
+        <v>in9</v>
+      </c>
       <c r="C4" s="63"/>
       <c r="D4" s="69"/>
       <c r="E4" s="63"/>
@@ -8874,6 +8947,21 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
+      <c r="Y16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="68"/>
@@ -9767,7 +9855,7 @@
           <x14:formula1>
             <xm:f>_data!$A$2:$A$153</xm:f>
           </x14:formula1>
-          <xm:sqref>AA5:AA15</xm:sqref>
+          <xm:sqref>AA5:AA16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9779,8 +9867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:O32"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9802,7 +9890,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68"/>
+      <c r="A1" s="68" t="str">
+        <f>Y16</f>
+        <v>in10</v>
+      </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
       <c r="D1" s="69"/>
@@ -9838,10 +9929,6 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
-      <c r="B2" s="69" t="str">
-        <f>Y15</f>
-        <v>in9</v>
-      </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
       <c r="E2" s="68"/>
@@ -9913,7 +10000,10 @@
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="68"/>
-      <c r="B4" s="63"/>
+      <c r="B4" s="69" t="str">
+        <f>Y15</f>
+        <v>in9</v>
+      </c>
       <c r="C4" s="63"/>
       <c r="D4" s="69"/>
       <c r="E4" s="63"/>
@@ -10439,6 +10529,21 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
+      <c r="Y16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="68"/>
@@ -11332,7 +11437,7 @@
           <x14:formula1>
             <xm:f>_data!$A$2:$A$153</xm:f>
           </x14:formula1>
-          <xm:sqref>AA5:AA15</xm:sqref>
+          <xm:sqref>AA5:AA16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11370,7 +11475,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="103"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -11405,7 +11510,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="103"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="1"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
@@ -11441,7 +11546,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="103"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -11477,7 +11582,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="103"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -11524,7 +11629,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="103"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="33"/>
@@ -11571,25 +11676,25 @@
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="103"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="96" t="str">
+      <c r="F6" s="101" t="str">
         <f>Y5</f>
         <v>title</v>
       </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
@@ -11619,19 +11724,19 @@
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="103"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="98" t="str">
+      <c r="F7" s="103" t="str">
         <f>Y6</f>
         <v>headline</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
@@ -11665,7 +11770,7 @@
       <c r="A8" s="50"/>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="103"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="38"/>
       <c r="F8" s="39"/>
       <c r="G8" s="38"/>
@@ -11704,26 +11809,26 @@
       <c r="AI8" s="21"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -11749,25 +11854,25 @@
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="103"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="87" t="str">
+      <c r="G10" s="92" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="89"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="94"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -11794,22 +11899,22 @@
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="103"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="92"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="97"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -11842,22 +11947,22 @@
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="103"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="95"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="100"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -11886,7 +11991,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="103"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -11930,25 +12035,25 @@
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="103"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="87" t="str">
+      <c r="G14" s="92" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="89"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="94"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -11977,22 +12082,22 @@
       <c r="A15" s="1"/>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="103"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="92"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="97"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -12009,22 +12114,22 @@
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="103"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="95"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -12034,7 +12139,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="103"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -12059,25 +12164,25 @@
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="103"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="87" t="str">
+      <c r="G18" s="92" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="89"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="94"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -12087,22 +12192,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="103"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="92"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="97"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -12112,22 +12217,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="103"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="95"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="100"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -12137,7 +12242,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="103"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="44"/>
@@ -12162,25 +12267,25 @@
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="103"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="87" t="str">
+      <c r="G22" s="92" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="89"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="94"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -12190,22 +12295,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="103"/>
+      <c r="D23" s="91"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="92"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="97"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -12215,22 +12320,22 @@
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="103"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="95"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="100"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -12240,7 +12345,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="103"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="44"/>
@@ -12265,7 +12370,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="103"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="44"/>
@@ -12290,7 +12395,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="103"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="44"/>
@@ -12315,7 +12420,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="103"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="44"/>
@@ -12340,7 +12445,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="103"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="44"/>
@@ -12365,7 +12470,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="103"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -12390,7 +12495,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="103"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -12414,24 +12519,24 @@
       <c r="A32" s="2"/>
       <c r="B32" s="17"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="103"/>
+      <c r="D32" s="91"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="102" t="s">
+      <c r="F32" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -12440,7 +12545,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="17"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="103"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -12464,7 +12569,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="17"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="103"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -12486,28 +12591,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -12984,28 +13089,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
       <c r="W1" s="45"/>
@@ -13021,41 +13126,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="119" t="str">
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="120" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="106" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="126" t="str">
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="127" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="139" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="145" t="str">
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="146" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="148"/>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
@@ -13070,36 +13175,36 @@
       <c r="AC2" s="24"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="122" t="str">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="123" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="109" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="127" t="str">
+      <c r="I3" s="111"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="128" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="128"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="150"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="151"/>
       <c r="U3" s="46"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -13114,36 +13219,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="122" t="str">
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="123" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="109" t="s">
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="151" t="str">
+      <c r="O4" s="111"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="152" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="153"/>
+      <c r="R4" s="153"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="154"/>
       <c r="U4" s="46"/>
       <c r="V4" s="46"/>
       <c r="W4" s="46"/>
@@ -13170,36 +13275,36 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="122" t="str">
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="123" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="115" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="133" t="str">
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="134" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="134"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="150"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="151"/>
       <c r="U5" s="46"/>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
@@ -13222,41 +13327,41 @@
       <c r="AE5" s="10"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="160" t="str">
+      <c r="B6" s="144"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="161" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="142" t="s">
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="136" t="str">
+      <c r="I6" s="144"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="137" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="137"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="142" t="s">
+      <c r="L6" s="138"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="143"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="154" t="str">
+      <c r="O6" s="144"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="155" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="157"/>
       <c r="U6" s="47"/>
       <c r="V6" s="47"/>
       <c r="W6" s="47"/>
@@ -13277,9 +13382,9 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="118"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -13397,19 +13502,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
-      <c r="E10" s="159" t="s">
+      <c r="E10" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="159" t="s">
+      <c r="F10" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="159" t="s">
+      <c r="G10" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="159" t="s">
+      <c r="H10" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="159" t="s">
+      <c r="I10" s="160" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="54"/>
@@ -13451,11 +13556,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
       <c r="L11" s="6"/>
@@ -13495,11 +13600,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
       <c r="L12" s="6"/>
@@ -13539,11 +13644,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
       <c r="J13" s="54"/>
       <c r="K13" s="54"/>
       <c r="L13" s="6"/>
@@ -13657,21 +13762,21 @@
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="157" t="str">
+      <c r="C16" s="158" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -13704,21 +13809,21 @@
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="157" t="str">
+      <c r="C17" s="158" t="str">
         <f>Y10</f>
         <v>in4</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -14353,28 +14458,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -15946,28 +16051,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -17507,28 +17612,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -19068,28 +19173,28 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
